--- a/biology/Botanique/Saccharum_officinarum/Saccharum_officinarum.xlsx
+++ b/biology/Botanique/Saccharum_officinarum/Saccharum_officinarum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Saccharum officinarum est une espèce de plantes monocotylédones de la famille des Poaceae, sous-famille des Panicoideae, originaire du Sud-Est asiatique. Cette espèce est à l'origine de la plupart des cultivars de canne à sucre cultivés actuellement.
 C'est une espèce cultivée (cultigène), inconnue à l'état sauvage, même si elle est naturalisée dans diverses régions du monde dont les États-Unis. Elle est en revanche cultivée intensivement.
@@ -512,9 +524,11 @@
           <t>Liste des sous-espèces et variétés</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Tropicos                                           (7 décembre 2017)[2] (Attention liste brute contenant possiblement des synonymes) :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Tropicos                                           (7 décembre 2017) (Attention liste brute contenant possiblement des synonymes) :
 sous-espèces :
 Saccharum officinarum subsp. barberi (Jeswiet) Burkill
 Saccharum officinarum subsp. officinarum
@@ -570,12 +584,87 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Alimentaire
-L'espèce est utilisée principalement pour la production de sucre, extrait du broyat des tiges de la plante
-Élevage
-Elle produit un fourrage pour les animaux[3].
-Symbolique
-Dans le culture kanak, les entre-nœuds de la canne à sucre représentent les grands jalons de la vie humaine. Les premiers échanges entre les familles de futurs époux sont souvent des morceaux de canne à sucre. On retrouve fréquemment la canne à sucre dans les dons coutumiers, avec le taro et l'igname[4].
+          <t>Alimentaire</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est utilisée principalement pour la production de sucre, extrait du broyat des tiges de la plante
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Saccharum_officinarum</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Saccharum_officinarum</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Usage</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Élevage</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle produit un fourrage pour les animaux.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Saccharum_officinarum</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Saccharum_officinarum</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Usage</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Symbolique</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans le culture kanak, les entre-nœuds de la canne à sucre représentent les grands jalons de la vie humaine. Les premiers échanges entre les familles de futurs époux sont souvent des morceaux de canne à sucre. On retrouve fréquemment la canne à sucre dans les dons coutumiers, avec le taro et l'igname.
 </t>
         </is>
       </c>
